--- a/site descriptions.xlsx
+++ b/site descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="6400" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="22120" yWindow="5480" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>AA2Day</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>U. Florida dated interface;  25 simulators available (requires Shockwave plugin), others available by subscription.</t>
+  </si>
+  <si>
+    <t>Ageneral</t>
+  </si>
+  <si>
+    <t>DevlpAnes</t>
+  </si>
+  <si>
+    <t>RCA Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword-oriented site divided into a few categories, last updated 11/14. </t>
+  </si>
+  <si>
+    <t>Site dedicated to anesthesia education in limited-resource countries. Hosts numerous pdf handouts, seminars, guidelines and textbook.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust British anesthesia educational modules for medical students and junior trainees. </t>
   </si>
 </sst>
 </file>
@@ -268,8 +286,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,7 +416,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -446,6 +474,11 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +536,11 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1068,54 +1106,78 @@
         <v>66</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
     </row>

--- a/site descriptions.xlsx
+++ b/site descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22120" yWindow="5480" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="25760" yWindow="2120" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>AA2Day</t>
   </si>
@@ -238,6 +238,105 @@
   </si>
   <si>
     <t xml:space="preserve">Robust British anesthesia educational modules for medical students and junior trainees. </t>
+  </si>
+  <si>
+    <t>AlgoSonic</t>
+  </si>
+  <si>
+    <t>David Rosenblum of Maimonides Medical Center, gallery of block techinques, images only. Some anecdotal commentary by the author.</t>
+  </si>
+  <si>
+    <t>amsura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Rodrigo site describes its training services and workshops. There is a nice gallery of lecture slides and videos for  peripheral nerve blocks. </t>
+  </si>
+  <si>
+    <t>BLockJOcks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited number of videos availble to Basic subscribers. </t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Beautiful interface for links to YouTube block videos. Huge Ask the Experts section for expert techinical commentary.  Quizzes available.</t>
+  </si>
+  <si>
+    <t>LipidRescue</t>
+  </si>
+  <si>
+    <t>All about Intralipid for local anesthetic toxicity.</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Freely available high quality regional anesthesia textbook.</t>
+  </si>
+  <si>
+    <t>nerve imaging</t>
+  </si>
+  <si>
+    <t>rku</t>
+  </si>
+  <si>
+    <t>UCSF atlas with brief descriptions and images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German authored block gallery with concise descriptions and decent videos as well as fundamentals about anatomy and, nerve stim, catheters. </t>
+  </si>
+  <si>
+    <t>neuraxiom</t>
+  </si>
+  <si>
+    <t>nysora</t>
+  </si>
+  <si>
+    <t>oregon</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>regionalworks</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>usra</t>
+  </si>
+  <si>
+    <t>us guide em</t>
+  </si>
+  <si>
+    <t>Vast collection of resources on regional anesthesia; block technique, anatomy, sonoanatomy etc. Approx 10 well-produceced block videos.</t>
+  </si>
+  <si>
+    <t>Throrough but somewhat dated web gallery with excellent graphics detailing anatomy. Few videos but well-labeled ultrasound images.</t>
+  </si>
+  <si>
+    <t>Scattered resources, a few sonoanatomy videos, small image library, quizzes.</t>
+  </si>
+  <si>
+    <t>This site is down as of 12-22-15</t>
+  </si>
+  <si>
+    <t>Narrated library of well-produced block videos with short accompanying descriptions from Montreal General Hospital.</t>
+  </si>
+  <si>
+    <t>Huge collection of block with descriptions, illustrations, and videos; "controversial issues, recs" by New Zealand anesthesiologist Michael Frederickson</t>
+  </si>
+  <si>
+    <t>Short descriptions of block technique with a few images. Produced by staff at Toronto Western Hospital.</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -286,8 +385,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,7 +571,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -479,6 +634,34 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -541,6 +724,34 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1130,54 +1341,203 @@
         <v>72</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C56" t="s">
         <v>57</v>
       </c>
     </row>
